--- a/database/dictionary.xlsx
+++ b/database/dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\adnan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\adnan\source\slrrmods\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37089AF9-36F0-4874-8600-F71E6A6F4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC30824-3410-432E-A539-8E8CF0412A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{06EC9EF5-EB63-4559-9811-ECF5A250585D}"/>
   </bookViews>
@@ -45,7 +45,6 @@
     <sheet name="ForumReply" sheetId="32" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="196">
   <si>
     <t>User</t>
   </si>
@@ -125,39 +124,15 @@
     <t>text</t>
   </si>
   <si>
-    <t>first_login</t>
-  </si>
-  <si>
-    <t>last_login</t>
-  </si>
-  <si>
     <t>profile_picture</t>
   </si>
   <si>
-    <t>confirmed</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>confirmed_at</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>confirmation_sent_at</t>
-  </si>
-  <si>
-    <t>if the user has confirmed his email</t>
-  </si>
-  <si>
-    <t>when the email was confirmated</t>
-  </si>
-  <si>
-    <t>when the email confirmation was sent</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -651,6 +626,33 @@
   </si>
   <si>
     <t>moderator</t>
+  </si>
+  <si>
+    <t>when then user was created</t>
+  </si>
+  <si>
+    <t>last_sign_in_at</t>
+  </si>
+  <si>
+    <t>the last time that this user has changed it's informations</t>
+  </si>
+  <si>
+    <t>email_confirmation_sent_at</t>
+  </si>
+  <si>
+    <t>email_confirmation_token</t>
+  </si>
+  <si>
+    <t>email_confirmed_at</t>
+  </si>
+  <si>
+    <t>password_recovery_sent_at</t>
+  </si>
+  <si>
+    <t>password_recovery_token</t>
+  </si>
+  <si>
+    <t>password_recovered_at</t>
   </si>
 </sst>
 </file>
@@ -710,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2246,8 +2249,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}" name="Tabela1" displayName="Tabela1" ref="A2:I18" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298">
-  <autoFilter ref="A2:I18" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}" name="Tabela1" displayName="Tabela1" ref="A2:I23" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298">
+  <autoFilter ref="A2:I23" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3CE6E30F-E1BE-4EA7-8388-1D081F667119}" name="Field" dataDxfId="297"/>
     <tableColumn id="2" xr3:uid="{905D48EE-DAA6-471F-A925-8EF51EE64A59}" name="Type" dataDxfId="296"/>
@@ -3030,15 +3036,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D64F4C7-B4C2-44A5-9769-B07F1FB738D3}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
@@ -3088,15 +3094,15 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -3108,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -3119,22 +3125,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -3145,33 +3151,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -3180,13 +3189,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>2048</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3197,7 +3206,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -3209,36 +3218,33 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -3255,7 +3261,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3274,20 +3280,23 @@
       </c>
       <c r="H9" s="4">
         <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -3304,19 +3313,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6000</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -3326,43 +3335,37 @@
       </c>
       <c r="H11" s="4">
         <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -3374,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -3386,12 +3389,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -3414,16 +3417,13 @@
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -3442,26 +3442,29 @@
       </c>
       <c r="H15" s="4">
         <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>256</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -3470,21 +3473,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -3496,18 +3499,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>6000</v>
+        <v>1024</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -3521,6 +3524,137 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3557,7 +3691,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3594,12 +3728,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3623,12 +3757,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3652,12 +3786,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -3683,10 +3817,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -3707,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +3878,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3781,12 +3915,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3812,7 +3946,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3836,12 +3970,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -3867,7 +4001,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -3893,7 +4027,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -3919,7 +4053,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -3943,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +4114,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4017,12 +4151,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4046,12 +4180,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4075,12 +4209,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -4106,10 +4240,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -4164,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4201,12 +4335,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4232,7 +4366,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4256,12 +4390,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -4287,7 +4421,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -4313,7 +4447,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -4339,7 +4473,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -4365,7 +4499,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -4389,15 +4523,15 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4420,10 +4554,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -4446,7 +4580,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -4472,7 +4606,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -4496,15 +4630,15 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -4559,7 +4693,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4596,12 +4730,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4627,7 +4761,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -4685,7 +4819,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4722,12 +4856,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4751,12 +4885,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4780,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4854,12 +4988,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4885,7 +5019,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4909,12 +5043,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -4940,10 +5074,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -4966,7 +5100,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -4990,15 +5124,15 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -5053,7 +5187,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5090,12 +5224,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5121,7 +5255,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -5179,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5216,12 +5350,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5247,7 +5381,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -5273,7 +5407,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -5297,15 +5431,15 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -5328,7 +5462,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -5354,7 +5488,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -5378,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5415,7 +5549,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5452,15 +5586,15 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -5515,7 +5649,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5552,12 +5686,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5583,7 +5717,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -5609,7 +5743,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -5635,7 +5769,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -5653,15 +5787,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -5684,10 +5818,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -5710,10 +5844,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -5736,10 +5870,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -5762,10 +5896,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -5820,7 +5954,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5857,12 +5991,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5886,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5923,7 +6057,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5960,12 +6094,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -5989,15 +6123,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -6020,7 +6154,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -6046,7 +6180,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -6070,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6241,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6144,12 +6278,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6175,7 +6309,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -6201,7 +6335,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -6227,10 +6361,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -6285,7 +6419,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6322,12 +6456,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6353,7 +6487,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -6379,10 +6513,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -6405,7 +6539,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -6429,12 +6563,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -6458,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6495,7 +6629,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6532,12 +6666,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6563,7 +6697,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -6589,7 +6723,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -6615,7 +6749,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -6641,7 +6775,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -6665,12 +6799,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -6694,15 +6828,15 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -6725,10 +6859,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -6751,16 +6885,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -6777,10 +6911,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -6835,7 +6969,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6872,12 +7006,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6903,7 +7037,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -6927,15 +7061,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -6990,7 +7124,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7027,12 +7161,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7056,12 +7190,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7085,15 +7219,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -7116,7 +7250,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -7142,7 +7276,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -7166,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7203,7 +7337,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7240,12 +7374,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7303,7 +7437,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7340,12 +7474,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7371,7 +7505,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7395,15 +7529,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -7426,7 +7560,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -7452,7 +7586,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -7476,15 +7610,15 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -7539,7 +7673,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7576,12 +7710,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7607,7 +7741,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -7633,10 +7767,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -7691,7 +7825,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7728,12 +7862,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7757,12 +7891,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7786,12 +7920,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -7817,7 +7951,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -7841,12 +7975,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -7872,7 +8006,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -7896,15 +8030,15 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -7959,7 +8093,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7996,12 +8130,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8025,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8062,7 +8196,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8099,12 +8233,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8130,7 +8264,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -8156,7 +8290,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -8180,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -8217,7 +8351,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8254,12 +8388,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8285,7 +8419,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -8309,12 +8443,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -8340,7 +8474,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -8366,7 +8500,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -8392,10 +8526,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -8451,7 +8585,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8488,12 +8622,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8519,7 +8653,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -8543,12 +8677,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -8574,7 +8708,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -8598,12 +8732,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -8629,7 +8763,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -8655,7 +8789,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -8679,12 +8813,12 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -8743,7 +8877,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8780,12 +8914,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8811,7 +8945,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -8835,12 +8969,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -8864,12 +8998,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -8895,7 +9029,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -8921,7 +9055,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -8947,7 +9081,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -8971,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -9009,7 +9143,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9046,12 +9180,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -9077,7 +9211,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -9136,7 +9270,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9173,12 +9307,12 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -9204,7 +9338,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -9230,7 +9364,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -9256,7 +9390,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -9280,21 +9414,21 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>

--- a/database/dictionary.xlsx
+++ b/database/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\adnan\source\slrrmods\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC30824-3410-432E-A539-8E8CF0412A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404E35F-5EB0-4C92-B047-A55E0AF78F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{06EC9EF5-EB63-4559-9811-ECF5A250585D}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="198">
   <si>
     <t>User</t>
   </si>
@@ -253,12 +253,6 @@
     <t>ip</t>
   </si>
   <si>
-    <t>revoked_by</t>
-  </si>
-  <si>
-    <t>the id of the user that has revoked this session</t>
-  </si>
-  <si>
     <t>the id of the user that is has committed the offence</t>
   </si>
   <si>
@@ -653,6 +647,18 @@
   </si>
   <si>
     <t>password_recovered_at</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>where the session is located</t>
+  </si>
+  <si>
+    <t>use_sso</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;\-;&quot;No&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +687,14 @@
       <b/>
       <sz val="22"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2249,10 +2263,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}" name="Tabela1" displayName="Tabela1" ref="A2:I23" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298">
-  <autoFilter ref="A2:I23" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I12">
-    <sortCondition ref="A2:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}" name="Tabela1" displayName="Tabela1" ref="A2:I22" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298">
+  <autoFilter ref="A2:I22" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3CE6E30F-E1BE-4EA7-8388-1D081F667119}" name="Field" dataDxfId="297"/>
@@ -2720,8 +2734,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DE3B34C-BEC8-41AD-A1B8-3CAFE666982F}" name="Tabela169" displayName="Tabela169" ref="A2:I10" totalsRowShown="0" headerRowDxfId="249" dataDxfId="248">
-  <autoFilter ref="A2:I10" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DE3B34C-BEC8-41AD-A1B8-3CAFE666982F}" name="Tabela169" displayName="Tabela169" ref="A2:I11" totalsRowShown="0" headerRowDxfId="249" dataDxfId="248">
+  <autoFilter ref="A2:I11" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BE1F2404-C1A2-4036-BE03-85BE0B543DC4}" name="Field" dataDxfId="247"/>
     <tableColumn id="2" xr3:uid="{A84F0B6E-CA56-407B-92BB-E50AC0F10215}" name="Type" dataDxfId="246"/>
@@ -3036,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D64F4C7-B4C2-44A5-9769-B07F1FB738D3}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3180,42 +3194,45 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>256</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -3224,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -3232,19 +3249,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -3258,19 +3275,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1024</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -3280,26 +3297,23 @@
       </c>
       <c r="H9" s="4">
         <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -3313,25 +3327,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6000</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -3339,22 +3353,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -3365,16 +3379,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -3387,23 +3401,20 @@
       </c>
       <c r="H13" s="4">
         <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1024</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -3420,7 +3431,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -3432,7 +3443,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -3442,29 +3453,26 @@
       </c>
       <c r="H15" s="4">
         <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>256</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -3475,16 +3483,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1024</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -3501,19 +3509,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1024</v>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -3523,23 +3531,26 @@
       </c>
       <c r="H18" s="4">
         <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -3553,19 +3564,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>1024</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -3579,7 +3590,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -3591,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -3601,11 +3612,14 @@
       </c>
       <c r="H21" s="4">
         <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -3614,13 +3628,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -3628,33 +3642,6 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3691,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3733,7 +3720,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -3757,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3791,7 +3778,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -3817,7 +3804,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -3841,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3865,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3946,7 +3933,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -3970,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4001,7 +3988,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -4053,7 +4040,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -4077,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4114,7 +4101,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4180,12 +4167,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4209,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4298,7 +4285,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4366,7 +4353,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4390,12 +4377,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -4473,7 +4460,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -4499,7 +4486,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -4523,12 +4510,12 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -4554,7 +4541,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -4606,7 +4593,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -4630,12 +4617,12 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -4693,7 +4680,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4819,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4861,7 +4848,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4885,12 +4872,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4914,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +4938,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5019,7 +5006,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -5043,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5074,7 +5061,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -5100,7 +5087,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -5124,12 +5111,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -5187,7 +5174,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5255,7 +5242,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -5313,7 +5300,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5381,7 +5368,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -5407,7 +5394,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -5431,12 +5418,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -5462,7 +5449,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -5512,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +5536,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5591,7 +5578,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -5818,7 +5805,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -5844,7 +5831,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -5870,7 +5857,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -5896,7 +5883,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -5954,7 +5941,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5996,7 +5983,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6020,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6057,7 +6044,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6099,7 +6086,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6123,12 +6110,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -6154,7 +6141,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -6180,7 +6167,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -6204,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6241,7 +6228,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6309,7 +6296,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -6335,7 +6322,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -6361,7 +6348,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -6419,7 +6406,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6487,7 +6474,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -6513,10 +6500,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -6539,7 +6526,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -6563,12 +6550,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -6592,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6629,7 +6616,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6697,7 +6684,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -6723,7 +6710,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -6749,7 +6736,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -6775,7 +6762,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -6799,12 +6786,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -6828,12 +6815,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -6859,7 +6846,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -6885,16 +6872,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -6911,7 +6898,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -6969,7 +6956,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7061,12 +7048,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -7124,7 +7111,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7166,7 +7153,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -7190,12 +7177,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7219,12 +7206,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -7250,7 +7237,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -7276,7 +7263,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -7300,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -7337,7 +7324,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7437,7 +7424,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7505,7 +7492,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -7529,12 +7516,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -7560,7 +7547,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -7586,7 +7573,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -7610,12 +7597,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -7673,7 +7660,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7741,7 +7728,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -7767,7 +7754,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -7825,7 +7812,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8035,7 +8022,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -8093,7 +8080,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8135,7 +8122,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -8159,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8564,10 +8551,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A51C3-7433-4078-8EA1-EE94CC9AD9DB}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8749,7 +8736,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -8789,19 +8776,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -8810,24 +8797,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>15</v>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -8841,6 +8825,36 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8877,7 +8891,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8945,7 +8959,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -8969,12 +8983,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -8998,12 +9012,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -9029,7 +9043,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -9055,7 +9069,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -9081,7 +9095,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -9105,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -9270,7 +9284,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9364,7 +9378,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -9414,21 +9428,21 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>

--- a/database/dictionary.xlsx
+++ b/database/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\adnan\source\slrrmods\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404E35F-5EB0-4C92-B047-A55E0AF78F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E555CA-DFF7-42C3-8199-4BB054222A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{06EC9EF5-EB63-4559-9811-ECF5A250585D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="5" xr2:uid="{06EC9EF5-EB63-4559-9811-ECF5A250585D}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -19,30 +19,31 @@
     <sheet name="Country" sheetId="5" r:id="rId4"/>
     <sheet name="Notification" sheetId="7" r:id="rId5"/>
     <sheet name="Session" sheetId="8" r:id="rId6"/>
-    <sheet name="Offense" sheetId="9" r:id="rId7"/>
-    <sheet name="Offense-Type" sheetId="10" r:id="rId8"/>
-    <sheet name="Badge" sheetId="11" r:id="rId9"/>
-    <sheet name="User-Badges" sheetId="12" r:id="rId10"/>
-    <sheet name="PrivateMessage" sheetId="13" r:id="rId11"/>
-    <sheet name="User-PrivateMessages" sheetId="14" r:id="rId12"/>
-    <sheet name="Post" sheetId="15" r:id="rId13"/>
-    <sheet name="Tag" sheetId="16" r:id="rId14"/>
-    <sheet name="Post-Tags" sheetId="17" r:id="rId15"/>
-    <sheet name="Content" sheetId="18" r:id="rId16"/>
-    <sheet name="ContentStatus" sheetId="19" r:id="rId17"/>
-    <sheet name="ContentReview" sheetId="20" r:id="rId18"/>
-    <sheet name="News" sheetId="21" r:id="rId19"/>
-    <sheet name="Comment" sheetId="22" r:id="rId20"/>
-    <sheet name="Download" sheetId="23" r:id="rId21"/>
-    <sheet name="DownloadCategory" sheetId="24" r:id="rId22"/>
-    <sheet name="DownloadReview" sheetId="25" r:id="rId23"/>
-    <sheet name="DownloadRelease" sheetId="26" r:id="rId24"/>
-    <sheet name="Roleplay" sheetId="27" r:id="rId25"/>
-    <sheet name="RoleplayPlayer" sheetId="28" r:id="rId26"/>
-    <sheet name="RoleplayHistory" sheetId="29" r:id="rId27"/>
-    <sheet name="ForumTopic" sheetId="30" r:id="rId28"/>
-    <sheet name="ForumCategory" sheetId="31" r:id="rId29"/>
-    <sheet name="ForumReply" sheetId="32" r:id="rId30"/>
+    <sheet name="Refresh-Token" sheetId="33" r:id="rId7"/>
+    <sheet name="Offense" sheetId="9" r:id="rId8"/>
+    <sheet name="Offense-Type" sheetId="10" r:id="rId9"/>
+    <sheet name="Badge" sheetId="11" r:id="rId10"/>
+    <sheet name="User-Badges" sheetId="12" r:id="rId11"/>
+    <sheet name="PrivateMessage" sheetId="13" r:id="rId12"/>
+    <sheet name="User-PrivateMessages" sheetId="14" r:id="rId13"/>
+    <sheet name="Post" sheetId="15" r:id="rId14"/>
+    <sheet name="Tag" sheetId="16" r:id="rId15"/>
+    <sheet name="Post-Tags" sheetId="17" r:id="rId16"/>
+    <sheet name="Content" sheetId="18" r:id="rId17"/>
+    <sheet name="ContentStatus" sheetId="19" r:id="rId18"/>
+    <sheet name="ContentReview" sheetId="20" r:id="rId19"/>
+    <sheet name="News" sheetId="21" r:id="rId20"/>
+    <sheet name="Comment" sheetId="22" r:id="rId21"/>
+    <sheet name="Download" sheetId="23" r:id="rId22"/>
+    <sheet name="DownloadCategory" sheetId="24" r:id="rId23"/>
+    <sheet name="DownloadReview" sheetId="25" r:id="rId24"/>
+    <sheet name="DownloadRelease" sheetId="26" r:id="rId25"/>
+    <sheet name="Roleplay" sheetId="27" r:id="rId26"/>
+    <sheet name="RoleplayPlayer" sheetId="28" r:id="rId27"/>
+    <sheet name="RoleplayHistory" sheetId="29" r:id="rId28"/>
+    <sheet name="ForumTopic" sheetId="30" r:id="rId29"/>
+    <sheet name="ForumCategory" sheetId="31" r:id="rId30"/>
+    <sheet name="ForumReply" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="204">
   <si>
     <t>User</t>
   </si>
@@ -655,10 +656,28 @@
     <t>where the session is located</t>
   </si>
   <si>
-    <t>use_sso</t>
-  </si>
-  <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>Refresh-Token</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>the id of the session this token refreshes</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>used_at</t>
+  </si>
+  <si>
+    <t>sso</t>
   </si>
 </sst>
 </file>
@@ -740,15 +759,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="300">
+  <dxfs count="310">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;\-;&quot;No&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2249,6 +2268,56 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;\-;&quot;No&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;\-;&quot;No&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;\-;&quot;No&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;\-;&quot;No&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2263,20 +2332,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}" name="Tabela1" displayName="Tabela1" ref="A2:I22" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}" name="Tabela1" displayName="Tabela1" ref="A2:I22" totalsRowShown="0" headerRowDxfId="309" dataDxfId="308">
   <autoFilter ref="A2:I22" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
     <sortCondition ref="A2:A22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3CE6E30F-E1BE-4EA7-8388-1D081F667119}" name="Field" dataDxfId="297"/>
-    <tableColumn id="2" xr3:uid="{905D48EE-DAA6-471F-A925-8EF51EE64A59}" name="Type" dataDxfId="296"/>
-    <tableColumn id="3" xr3:uid="{BF2F0DE9-A720-4673-B015-041D86CBD247}" name="Min Value" dataDxfId="295"/>
-    <tableColumn id="4" xr3:uid="{2BF4ADF9-F337-4D88-AFD4-153D8D4A47EF}" name="Max Value" dataDxfId="294"/>
-    <tableColumn id="5" xr3:uid="{E308D6C3-F439-458E-8CF0-1DAED5385FF9}" name="Required" dataDxfId="293"/>
-    <tableColumn id="6" xr3:uid="{C244B18B-ADAF-47E6-9E30-F0BE6731047A}" name="Unique" dataDxfId="292"/>
-    <tableColumn id="7" xr3:uid="{F1FAFD9D-623D-4CF9-B30B-4CE9329EE8E3}" name="Primary Key" dataDxfId="291"/>
-    <tableColumn id="8" xr3:uid="{4FAC6D44-4FCF-4362-BF7C-D5D4AE3E9409}" name="Foreign Key" dataDxfId="290"/>
+    <tableColumn id="1" xr3:uid="{3CE6E30F-E1BE-4EA7-8388-1D081F667119}" name="Field" dataDxfId="307"/>
+    <tableColumn id="2" xr3:uid="{905D48EE-DAA6-471F-A925-8EF51EE64A59}" name="Type" dataDxfId="306"/>
+    <tableColumn id="3" xr3:uid="{BF2F0DE9-A720-4673-B015-041D86CBD247}" name="Min Value" dataDxfId="305"/>
+    <tableColumn id="4" xr3:uid="{2BF4ADF9-F337-4D88-AFD4-153D8D4A47EF}" name="Max Value" dataDxfId="304"/>
+    <tableColumn id="5" xr3:uid="{E308D6C3-F439-458E-8CF0-1DAED5385FF9}" name="Required" dataDxfId="303"/>
+    <tableColumn id="6" xr3:uid="{C244B18B-ADAF-47E6-9E30-F0BE6731047A}" name="Unique" dataDxfId="302"/>
+    <tableColumn id="7" xr3:uid="{F1FAFD9D-623D-4CF9-B30B-4CE9329EE8E3}" name="Primary Key" dataDxfId="301"/>
+    <tableColumn id="8" xr3:uid="{4FAC6D44-4FCF-4362-BF7C-D5D4AE3E9409}" name="Foreign Key" dataDxfId="300"/>
     <tableColumn id="9" xr3:uid="{21D94CCE-FE3C-4401-AAE8-F3BE81516D0A}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2284,197 +2353,197 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E15897FB-AB35-44ED-8133-C025BC4CD08B}" name="Tabela161213" displayName="Tabela161213" ref="A2:I6" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FA33D8E3-F06A-48F0-BF73-503FE072A1A3}" name="Tabela1612" displayName="Tabela1612" ref="A2:I7" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228">
+  <autoFilter ref="A2:I7" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D5BA9240-3B08-43AC-8861-7EB6716C9058}" name="Field" dataDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{C0CAA18D-BD86-43C1-B0C7-44B35940549E}" name="Type" dataDxfId="226"/>
+    <tableColumn id="3" xr3:uid="{BC23099E-60B8-46A3-92BE-675190366721}" name="Min Value" dataDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{CF5ADA55-2C92-4516-8E57-B502FE55CEF3}" name="Max Value" dataDxfId="224"/>
+    <tableColumn id="5" xr3:uid="{F2D377AA-EC81-4933-A291-92F20DC95BF8}" name="Required" dataDxfId="223"/>
+    <tableColumn id="6" xr3:uid="{7F471EAF-8F98-47B8-844C-DFD9E128CE9E}" name="Unique" dataDxfId="222"/>
+    <tableColumn id="7" xr3:uid="{EEB040FA-7014-453F-913F-85F2FC3793EE}" name="Primary Key" dataDxfId="221"/>
+    <tableColumn id="8" xr3:uid="{0AA900A8-692D-42EB-A5EA-1FAFD0D877B9}" name="Foreign Key" dataDxfId="220"/>
+    <tableColumn id="9" xr3:uid="{9412B86B-5593-4E73-9C42-579CF677995A}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E15897FB-AB35-44ED-8133-C025BC4CD08B}" name="Tabela161213" displayName="Tabela161213" ref="A2:I6" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
   <autoFilter ref="A2:I6" xr:uid="{E15897FB-AB35-44ED-8133-C025BC4CD08B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{66868438-AB14-415B-A5F1-6EFEC8C5A938}" name="Field" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{E3B1AE55-2CF5-47CE-BCC1-BE1768C78997}" name="Type" dataDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{FA35B1A9-1D39-4889-9F5F-67A8E08DEED7}" name="Min Value" dataDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{29F873B2-E82A-415E-90F9-EF6C667BC17F}" name="Max Value" dataDxfId="204"/>
-    <tableColumn id="5" xr3:uid="{DB0A01D1-3F62-43B0-BAEA-E1D03E65DE50}" name="Required" dataDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{FB229C74-F773-485E-8CA2-AD8D82662D25}" name="Unique" dataDxfId="202"/>
-    <tableColumn id="7" xr3:uid="{9D0B614B-2CFD-42F8-841E-34ADBED5381A}" name="Primary Key" dataDxfId="201"/>
-    <tableColumn id="8" xr3:uid="{97894FC8-D452-46DE-A2D3-CC9B4B1FA1A4}" name="Foreign Key" dataDxfId="200"/>
+    <tableColumn id="1" xr3:uid="{66868438-AB14-415B-A5F1-6EFEC8C5A938}" name="Field" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{E3B1AE55-2CF5-47CE-BCC1-BE1768C78997}" name="Type" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{FA35B1A9-1D39-4889-9F5F-67A8E08DEED7}" name="Min Value" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{29F873B2-E82A-415E-90F9-EF6C667BC17F}" name="Max Value" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{DB0A01D1-3F62-43B0-BAEA-E1D03E65DE50}" name="Required" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{FB229C74-F773-485E-8CA2-AD8D82662D25}" name="Unique" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{9D0B614B-2CFD-42F8-841E-34ADBED5381A}" name="Primary Key" dataDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{97894FC8-D452-46DE-A2D3-CC9B4B1FA1A4}" name="Foreign Key" dataDxfId="210"/>
     <tableColumn id="9" xr3:uid="{E3F55533-D03A-4A42-8357-08C166E8E4A1}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{128A8656-FAB9-4FD0-8DFC-420E16E9AA78}" name="Tabela1614" displayName="Tabela1614" ref="A2:I8" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{128A8656-FAB9-4FD0-8DFC-420E16E9AA78}" name="Tabela1614" displayName="Tabela1614" ref="A2:I8" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="A2:I8" xr:uid="{128A8656-FAB9-4FD0-8DFC-420E16E9AA78}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59893359-45E7-4639-A63B-8E2056B699BC}" name="Field" dataDxfId="197"/>
-    <tableColumn id="2" xr3:uid="{C83FF960-176A-4BDC-A029-B27DCCA30EEF}" name="Type" dataDxfId="196"/>
-    <tableColumn id="3" xr3:uid="{74545BD2-E830-44C0-8F6E-F794300B72E6}" name="Min Value" dataDxfId="195"/>
-    <tableColumn id="4" xr3:uid="{7EE2E47A-52E4-4577-8A65-0D38C3D4EA06}" name="Max Value" dataDxfId="194"/>
-    <tableColumn id="5" xr3:uid="{2B660249-AD9D-4850-986E-8A2DB2CCD9C3}" name="Required" dataDxfId="193"/>
-    <tableColumn id="6" xr3:uid="{D3CC9C6A-EBD0-4F5B-8A89-5C07F589225A}" name="Unique" dataDxfId="192"/>
-    <tableColumn id="7" xr3:uid="{A79C98F5-9556-47AF-BA56-2B8DA1B75F37}" name="Primary Key" dataDxfId="191"/>
-    <tableColumn id="8" xr3:uid="{FB1A9E53-94B0-4288-8C53-86E977435440}" name="Foreign Key" dataDxfId="190"/>
+    <tableColumn id="1" xr3:uid="{59893359-45E7-4639-A63B-8E2056B699BC}" name="Field" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{C83FF960-176A-4BDC-A029-B27DCCA30EEF}" name="Type" dataDxfId="206"/>
+    <tableColumn id="3" xr3:uid="{74545BD2-E830-44C0-8F6E-F794300B72E6}" name="Min Value" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{7EE2E47A-52E4-4577-8A65-0D38C3D4EA06}" name="Max Value" dataDxfId="204"/>
+    <tableColumn id="5" xr3:uid="{2B660249-AD9D-4850-986E-8A2DB2CCD9C3}" name="Required" dataDxfId="203"/>
+    <tableColumn id="6" xr3:uid="{D3CC9C6A-EBD0-4F5B-8A89-5C07F589225A}" name="Unique" dataDxfId="202"/>
+    <tableColumn id="7" xr3:uid="{A79C98F5-9556-47AF-BA56-2B8DA1B75F37}" name="Primary Key" dataDxfId="201"/>
+    <tableColumn id="8" xr3:uid="{FB1A9E53-94B0-4288-8C53-86E977435440}" name="Foreign Key" dataDxfId="200"/>
     <tableColumn id="9" xr3:uid="{AE217A92-3BB5-413A-A618-2D592817FC4E}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8F7DC1D3-7485-445A-B78F-60FC135F309F}" name="Tabela161415" displayName="Tabela161415" ref="A2:I6" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8F7DC1D3-7485-445A-B78F-60FC135F309F}" name="Tabela161415" displayName="Tabela161415" ref="A2:I6" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
   <autoFilter ref="A2:I6" xr:uid="{8F7DC1D3-7485-445A-B78F-60FC135F309F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4FD11A0C-6931-44E6-8B3A-A5A7C6DC42D6}" name="Field" dataDxfId="187"/>
-    <tableColumn id="2" xr3:uid="{5817ADC9-CF2E-4C1A-83EC-4A06D84BC110}" name="Type" dataDxfId="186"/>
-    <tableColumn id="3" xr3:uid="{50F09E31-B7AE-4DE5-AAFC-7FAF75979B0E}" name="Min Value" dataDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{64267589-B7EB-45F2-840E-2FE7117CB7DF}" name="Max Value" dataDxfId="184"/>
-    <tableColumn id="5" xr3:uid="{E0802E1D-7DAD-400D-90FE-F57306E92D08}" name="Required" dataDxfId="183"/>
-    <tableColumn id="6" xr3:uid="{51B0B6A0-DBF9-4F10-B304-6EFCA6A57E74}" name="Unique" dataDxfId="182"/>
-    <tableColumn id="7" xr3:uid="{17C20D5C-A7BA-4932-8BFB-7A16A5E2CB20}" name="Primary Key" dataDxfId="181"/>
-    <tableColumn id="8" xr3:uid="{1CFB05BC-3FF5-4B5E-89D8-7E38BBD1CDB7}" name="Foreign Key" dataDxfId="180"/>
+    <tableColumn id="1" xr3:uid="{4FD11A0C-6931-44E6-8B3A-A5A7C6DC42D6}" name="Field" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{5817ADC9-CF2E-4C1A-83EC-4A06D84BC110}" name="Type" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{50F09E31-B7AE-4DE5-AAFC-7FAF75979B0E}" name="Min Value" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{64267589-B7EB-45F2-840E-2FE7117CB7DF}" name="Max Value" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{E0802E1D-7DAD-400D-90FE-F57306E92D08}" name="Required" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{51B0B6A0-DBF9-4F10-B304-6EFCA6A57E74}" name="Unique" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{17C20D5C-A7BA-4932-8BFB-7A16A5E2CB20}" name="Primary Key" dataDxfId="191"/>
+    <tableColumn id="8" xr3:uid="{1CFB05BC-3FF5-4B5E-89D8-7E38BBD1CDB7}" name="Foreign Key" dataDxfId="190"/>
     <tableColumn id="9" xr3:uid="{1BA9A5B7-A858-495E-971B-BDC4E677D488}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7CBFD0E2-A9B7-4525-A3CE-E9142685981E}" name="Tabela16141516" displayName="Tabela16141516" ref="A2:I14" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{7CBFD0E2-A9B7-4525-A3CE-E9142685981E}" name="Tabela16141516" displayName="Tabela16141516" ref="A2:I14" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188">
   <autoFilter ref="A2:I14" xr:uid="{7CBFD0E2-A9B7-4525-A3CE-E9142685981E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A29E61B9-E89C-4561-A322-B4AFF12950DA}" name="Field" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{D2B3A7C8-B8BC-4369-964F-AD33F5FC5AF5}" name="Type" dataDxfId="176"/>
-    <tableColumn id="3" xr3:uid="{FC2CF441-2077-4CBC-A282-BEB233A0C44A}" name="Min Value" dataDxfId="175"/>
-    <tableColumn id="4" xr3:uid="{29DDCAD2-ED7A-485C-A512-2FC55870BAC0}" name="Max Value" dataDxfId="174"/>
-    <tableColumn id="5" xr3:uid="{F43C947B-D46A-4B73-9BFE-20499D70D222}" name="Required" dataDxfId="173"/>
-    <tableColumn id="6" xr3:uid="{E2E56296-4405-40F3-B266-8B9E448F8E82}" name="Unique" dataDxfId="172"/>
-    <tableColumn id="7" xr3:uid="{853562F5-1EA5-480A-A9D2-CFE8CA4EA49D}" name="Primary Key" dataDxfId="171"/>
-    <tableColumn id="8" xr3:uid="{51068D0D-6F31-46BB-ACD4-44EAF2A4778E}" name="Foreign Key" dataDxfId="170"/>
+    <tableColumn id="1" xr3:uid="{A29E61B9-E89C-4561-A322-B4AFF12950DA}" name="Field" dataDxfId="187"/>
+    <tableColumn id="2" xr3:uid="{D2B3A7C8-B8BC-4369-964F-AD33F5FC5AF5}" name="Type" dataDxfId="186"/>
+    <tableColumn id="3" xr3:uid="{FC2CF441-2077-4CBC-A282-BEB233A0C44A}" name="Min Value" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{29DDCAD2-ED7A-485C-A512-2FC55870BAC0}" name="Max Value" dataDxfId="184"/>
+    <tableColumn id="5" xr3:uid="{F43C947B-D46A-4B73-9BFE-20499D70D222}" name="Required" dataDxfId="183"/>
+    <tableColumn id="6" xr3:uid="{E2E56296-4405-40F3-B266-8B9E448F8E82}" name="Unique" dataDxfId="182"/>
+    <tableColumn id="7" xr3:uid="{853562F5-1EA5-480A-A9D2-CFE8CA4EA49D}" name="Primary Key" dataDxfId="181"/>
+    <tableColumn id="8" xr3:uid="{51068D0D-6F31-46BB-ACD4-44EAF2A4778E}" name="Foreign Key" dataDxfId="180"/>
     <tableColumn id="9" xr3:uid="{74E81804-C557-4709-A62D-0BC69DDACFDB}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8AA8832B-B06E-4CD9-9BF8-E70C93A67DF3}" name="Tabela1614151617" displayName="Tabela1614151617" ref="A2:I4" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8AA8832B-B06E-4CD9-9BF8-E70C93A67DF3}" name="Tabela1614151617" displayName="Tabela1614151617" ref="A2:I4" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="A2:I4" xr:uid="{8AA8832B-B06E-4CD9-9BF8-E70C93A67DF3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E38EE27E-0E8D-4276-A06F-4623D08D6AFF}" name="Field" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{19171758-7084-49DF-AEFC-3C8B32FFF46A}" name="Type" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{57D49828-593A-4CDC-9693-5F73531CE1CC}" name="Min Value" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{382DF2CE-1E09-4AAB-A33E-668EEA2D6418}" name="Max Value" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{EE504B3F-A24C-46C1-8825-C643419A2C03}" name="Required" dataDxfId="163"/>
-    <tableColumn id="6" xr3:uid="{4BF7424D-F2AE-47A7-9DE3-25781CD071CC}" name="Unique" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{6478F6A1-5A71-4CE9-80BD-5DB26BA004E0}" name="Primary Key" dataDxfId="161"/>
-    <tableColumn id="8" xr3:uid="{4EA1F976-5D3A-414D-9940-491D74F3B260}" name="Foreign Key" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{E38EE27E-0E8D-4276-A06F-4623D08D6AFF}" name="Field" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{19171758-7084-49DF-AEFC-3C8B32FFF46A}" name="Type" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{57D49828-593A-4CDC-9693-5F73531CE1CC}" name="Min Value" dataDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{382DF2CE-1E09-4AAB-A33E-668EEA2D6418}" name="Max Value" dataDxfId="174"/>
+    <tableColumn id="5" xr3:uid="{EE504B3F-A24C-46C1-8825-C643419A2C03}" name="Required" dataDxfId="173"/>
+    <tableColumn id="6" xr3:uid="{4BF7424D-F2AE-47A7-9DE3-25781CD071CC}" name="Unique" dataDxfId="172"/>
+    <tableColumn id="7" xr3:uid="{6478F6A1-5A71-4CE9-80BD-5DB26BA004E0}" name="Primary Key" dataDxfId="171"/>
+    <tableColumn id="8" xr3:uid="{4EA1F976-5D3A-414D-9940-491D74F3B260}" name="Foreign Key" dataDxfId="170"/>
     <tableColumn id="9" xr3:uid="{3584EA9E-9BA3-4815-BBD6-5A00ED593AEE}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93108B05-B175-45F9-BD39-8FFFBBFF6E9C}" name="Tabela161415161718" displayName="Tabela161415161718" ref="A2:I4" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{93108B05-B175-45F9-BD39-8FFFBBFF6E9C}" name="Tabela161415161718" displayName="Tabela161415161718" ref="A2:I4" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="A2:I4" xr:uid="{93108B05-B175-45F9-BD39-8FFFBBFF6E9C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F364331F-8318-401C-80A9-D68EB40BB70D}" name="Field" dataDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{39595167-019C-402A-A5DE-3E7CE2C3166F}" name="Type" dataDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{4B3D3CD0-B8A7-42DD-94D2-44E1D72D560A}" name="Min Value" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{3DC8F327-DF7C-4FAB-8125-97D633E1DCB4}" name="Max Value" dataDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{3560A52A-419A-4F93-A380-F64F6D73ED91}" name="Required" dataDxfId="153"/>
-    <tableColumn id="6" xr3:uid="{0D6E691D-3EC0-471F-8A2E-CD299FA998A4}" name="Unique" dataDxfId="152"/>
-    <tableColumn id="7" xr3:uid="{5F441B0C-DABF-4345-987A-D531FE67BE0F}" name="Primary Key" dataDxfId="151"/>
-    <tableColumn id="8" xr3:uid="{F0C7BC16-CE34-4DB1-A8DC-89492EEBF07C}" name="Foreign Key" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{F364331F-8318-401C-80A9-D68EB40BB70D}" name="Field" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{39595167-019C-402A-A5DE-3E7CE2C3166F}" name="Type" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{4B3D3CD0-B8A7-42DD-94D2-44E1D72D560A}" name="Min Value" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{3DC8F327-DF7C-4FAB-8125-97D633E1DCB4}" name="Max Value" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{3560A52A-419A-4F93-A380-F64F6D73ED91}" name="Required" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{0D6E691D-3EC0-471F-8A2E-CD299FA998A4}" name="Unique" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{5F441B0C-DABF-4345-987A-D531FE67BE0F}" name="Primary Key" dataDxfId="161"/>
+    <tableColumn id="8" xr3:uid="{F0C7BC16-CE34-4DB1-A8DC-89492EEBF07C}" name="Foreign Key" dataDxfId="160"/>
     <tableColumn id="9" xr3:uid="{9A447729-0809-423E-8F00-F663D6C7D9C3}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{38FE53A8-3F59-471C-8A8A-063EBBCE601A}" name="Tabela16141516171819" displayName="Tabela16141516171819" ref="A2:I8" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{38FE53A8-3F59-471C-8A8A-063EBBCE601A}" name="Tabela16141516171819" displayName="Tabela16141516171819" ref="A2:I8" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A2:I8" xr:uid="{38FE53A8-3F59-471C-8A8A-063EBBCE601A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A912283B-02C5-482E-A575-03D39917EFB9}" name="Field" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{AF1527FA-39C8-41CB-AFF1-324B9EFF96F1}" name="Type" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{760D2301-FE13-42B5-A89A-05DE72EB2EC7}" name="Min Value" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{0E4B1343-B3DF-4C91-B712-85E9C5E9B05D}" name="Max Value" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{A9C6434E-A329-4A11-AEDD-8663544EE17F}" name="Required" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{0D268CD1-4B94-4BDE-8F53-EC48AF2FCABF}" name="Unique" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{C2466EB2-7505-4BB3-BD6F-F7D2BA6E7340}" name="Primary Key" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{9186BCA6-CC89-4249-8BE1-15B4C9877464}" name="Foreign Key" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{A912283B-02C5-482E-A575-03D39917EFB9}" name="Field" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{AF1527FA-39C8-41CB-AFF1-324B9EFF96F1}" name="Type" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{760D2301-FE13-42B5-A89A-05DE72EB2EC7}" name="Min Value" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{0E4B1343-B3DF-4C91-B712-85E9C5E9B05D}" name="Max Value" dataDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{A9C6434E-A329-4A11-AEDD-8663544EE17F}" name="Required" dataDxfId="153"/>
+    <tableColumn id="6" xr3:uid="{0D268CD1-4B94-4BDE-8F53-EC48AF2FCABF}" name="Unique" dataDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{C2466EB2-7505-4BB3-BD6F-F7D2BA6E7340}" name="Primary Key" dataDxfId="151"/>
+    <tableColumn id="8" xr3:uid="{9186BCA6-CC89-4249-8BE1-15B4C9877464}" name="Foreign Key" dataDxfId="150"/>
     <tableColumn id="9" xr3:uid="{EF05020D-7C2A-4A7C-843A-A75F34165A6A}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{C2C9BDE8-61F2-4D8B-B0F6-14BE1C8C9741}" name="Tabela1614151617181920" displayName="Tabela1614151617181920" ref="A2:I4" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{C2C9BDE8-61F2-4D8B-B0F6-14BE1C8C9741}" name="Tabela1614151617181920" displayName="Tabela1614151617181920" ref="A2:I4" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A2:I4" xr:uid="{C2C9BDE8-61F2-4D8B-B0F6-14BE1C8C9741}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B950FD9A-3A19-4C70-A345-635AA57A2DD9}" name="Field" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{BE9B8598-F4C7-4CA7-982B-3426BAEA062A}" name="Type" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{BE7561FC-3F6B-4283-BBDC-FEDC64585717}" name="Min Value" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{8A967FBD-41C6-4326-99C7-86B7D109E202}" name="Max Value" dataDxfId="134"/>
-    <tableColumn id="5" xr3:uid="{50DE05E0-35C7-479C-9149-29AC70A666F2}" name="Required" dataDxfId="133"/>
-    <tableColumn id="6" xr3:uid="{B8319564-D23D-4DC8-AAA7-4FC5E94E6FF6}" name="Unique" dataDxfId="132"/>
-    <tableColumn id="7" xr3:uid="{A249F0E8-24F8-4B77-811D-564F6BAEC8F1}" name="Primary Key" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{069E737A-582D-4B27-B649-7A19832720FE}" name="Foreign Key" dataDxfId="130"/>
+    <tableColumn id="1" xr3:uid="{B950FD9A-3A19-4C70-A345-635AA57A2DD9}" name="Field" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{BE9B8598-F4C7-4CA7-982B-3426BAEA062A}" name="Type" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{BE7561FC-3F6B-4283-BBDC-FEDC64585717}" name="Min Value" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{8A967FBD-41C6-4326-99C7-86B7D109E202}" name="Max Value" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{50DE05E0-35C7-479C-9149-29AC70A666F2}" name="Required" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{B8319564-D23D-4DC8-AAA7-4FC5E94E6FF6}" name="Unique" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{A249F0E8-24F8-4B77-811D-564F6BAEC8F1}" name="Primary Key" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{069E737A-582D-4B27-B649-7A19832720FE}" name="Foreign Key" dataDxfId="140"/>
     <tableColumn id="9" xr3:uid="{3D19D837-B395-4216-B270-1FB6ECFFB15B}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4B88EABD-4F6B-4F6F-A262-3D664A710800}" name="Tabela161415161718192022" displayName="Tabela161415161718192022" ref="A2:I8" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4B88EABD-4F6B-4F6F-A262-3D664A710800}" name="Tabela161415161718192022" displayName="Tabela161415161718192022" ref="A2:I8" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A2:I8" xr:uid="{4B88EABD-4F6B-4F6F-A262-3D664A710800}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AA562847-0764-4AA6-9E9E-609F7AAFC600}" name="Field" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{2914BB8C-8353-4854-9FD0-5C7C53D312EB}" name="Type" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{100E2177-2158-4B3B-9F09-867B0AE8850B}" name="Min Value" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{2AC73F08-B2E7-435A-B827-DBED18CB098E}" name="Max Value" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{EBF646C1-4B6A-4BE0-9D63-B283F4DC012C}" name="Required" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{49115A98-D736-41B5-89AF-73746D52AE65}" name="Unique" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{D262E25D-DEB9-4A45-9D30-8BC217E8ADDB}" name="Primary Key" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{8B71140C-D786-4F9E-AC48-0D71AE431853}" name="Foreign Key" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{AA562847-0764-4AA6-9E9E-609F7AAFC600}" name="Field" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{2914BB8C-8353-4854-9FD0-5C7C53D312EB}" name="Type" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{100E2177-2158-4B3B-9F09-867B0AE8850B}" name="Min Value" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{2AC73F08-B2E7-435A-B827-DBED18CB098E}" name="Max Value" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{EBF646C1-4B6A-4BE0-9D63-B283F4DC012C}" name="Required" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{49115A98-D736-41B5-89AF-73746D52AE65}" name="Unique" dataDxfId="132"/>
+    <tableColumn id="7" xr3:uid="{D262E25D-DEB9-4A45-9D30-8BC217E8ADDB}" name="Primary Key" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{8B71140C-D786-4F9E-AC48-0D71AE431853}" name="Foreign Key" dataDxfId="130"/>
     <tableColumn id="9" xr3:uid="{F146D09E-CF5C-420A-85C9-D8CAE96D3EAB}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{ECB469AA-A301-49C6-8D97-F169F45B2FC2}" name="Tabela16141516171819202223" displayName="Tabela16141516171819202223" ref="A2:I3" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
-  <autoFilter ref="A2:I3" xr:uid="{ECB469AA-A301-49C6-8D97-F169F45B2FC2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1CCECA64-DFED-45D9-BF15-507DC9FE2C00}" name="Field" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{6550B1EF-8478-4E7A-B414-3FDC68A62EEA}" name="Type" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{42DE9E07-8F37-42A6-B47D-0262FF9B2871}" name="Min Value" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{407F5F88-B63D-4F8F-9200-3B44D0AE8DC5}" name="Max Value" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{0CDBD09B-4A63-4CF8-B4A4-E86D961E7E4A}" name="Required" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{BA657ABB-1429-42FA-9CCB-4BD3487D7E39}" name="Unique" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{5F23444A-83D7-45C0-B7FA-27C679C4E756}" name="Primary Key" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{8FBD7B36-2621-4D88-9135-93C3869901ED}" name="Foreign Key" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{BFB4D242-48BA-49A5-A925-0520A3002E9C}" name="Comments"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65B477F4-86EA-4C11-A0FD-A26257ED4E2B}" name="Tabela13" displayName="Tabela13" ref="A2:I11" totalsRowShown="0" headerRowDxfId="289" dataDxfId="288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65B477F4-86EA-4C11-A0FD-A26257ED4E2B}" name="Tabela13" displayName="Tabela13" ref="A2:I11" totalsRowShown="0" headerRowDxfId="299" dataDxfId="298">
   <autoFilter ref="A2:I11" xr:uid="{65B477F4-86EA-4C11-A0FD-A26257ED4E2B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{93EC0B65-7C3F-4065-BF94-DF07B9BFFA26}" name="Field" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{5EBEA024-2CAA-4D37-8C68-3B2B1C0C6788}" name="Type" dataDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{4FFF7B76-6518-4488-B8DC-B1530996ECE5}" name="Min Value" dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{94FDB360-6CE0-4056-959B-A1CA0F0CE197}" name="Max Value" dataDxfId="284"/>
-    <tableColumn id="5" xr3:uid="{5DD9B742-AFFA-4855-9F1E-1CA1196C3277}" name="Required" dataDxfId="283"/>
-    <tableColumn id="6" xr3:uid="{B4A33262-4081-4477-ACCA-F0081620CD32}" name="Unique" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{1AFDBEC2-A911-421A-B7C8-A00BA01689BE}" name="Primary Key" dataDxfId="281"/>
-    <tableColumn id="8" xr3:uid="{49E3CDC9-2EE8-41B8-B7C1-E2D1DB906AF8}" name="Foreign Key" dataDxfId="280"/>
+    <tableColumn id="1" xr3:uid="{93EC0B65-7C3F-4065-BF94-DF07B9BFFA26}" name="Field" dataDxfId="297"/>
+    <tableColumn id="2" xr3:uid="{5EBEA024-2CAA-4D37-8C68-3B2B1C0C6788}" name="Type" dataDxfId="296"/>
+    <tableColumn id="3" xr3:uid="{4FFF7B76-6518-4488-B8DC-B1530996ECE5}" name="Min Value" dataDxfId="295"/>
+    <tableColumn id="4" xr3:uid="{94FDB360-6CE0-4056-959B-A1CA0F0CE197}" name="Max Value" dataDxfId="294"/>
+    <tableColumn id="5" xr3:uid="{5DD9B742-AFFA-4855-9F1E-1CA1196C3277}" name="Required" dataDxfId="293"/>
+    <tableColumn id="6" xr3:uid="{B4A33262-4081-4477-ACCA-F0081620CD32}" name="Unique" dataDxfId="292"/>
+    <tableColumn id="7" xr3:uid="{1AFDBEC2-A911-421A-B7C8-A00BA01689BE}" name="Primary Key" dataDxfId="291"/>
+    <tableColumn id="8" xr3:uid="{49E3CDC9-2EE8-41B8-B7C1-E2D1DB906AF8}" name="Foreign Key" dataDxfId="290"/>
     <tableColumn id="9" xr3:uid="{85E74D59-78E9-4035-8D17-3B113483F1EC}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2482,197 +2551,197 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5FED1267-AA85-4F75-AE56-3D532E45AA63}" name="Tabela1614151617181920222324" displayName="Tabela1614151617181920222324" ref="A2:I3" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{ECB469AA-A301-49C6-8D97-F169F45B2FC2}" name="Tabela16141516171819202223" displayName="Tabela16141516171819202223" ref="A2:I3" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+  <autoFilter ref="A2:I3" xr:uid="{ECB469AA-A301-49C6-8D97-F169F45B2FC2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1CCECA64-DFED-45D9-BF15-507DC9FE2C00}" name="Field" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{6550B1EF-8478-4E7A-B414-3FDC68A62EEA}" name="Type" dataDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{42DE9E07-8F37-42A6-B47D-0262FF9B2871}" name="Min Value" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{407F5F88-B63D-4F8F-9200-3B44D0AE8DC5}" name="Max Value" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{0CDBD09B-4A63-4CF8-B4A4-E86D961E7E4A}" name="Required" dataDxfId="123"/>
+    <tableColumn id="6" xr3:uid="{BA657ABB-1429-42FA-9CCB-4BD3487D7E39}" name="Unique" dataDxfId="122"/>
+    <tableColumn id="7" xr3:uid="{5F23444A-83D7-45C0-B7FA-27C679C4E756}" name="Primary Key" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{8FBD7B36-2621-4D88-9135-93C3869901ED}" name="Foreign Key" dataDxfId="120"/>
+    <tableColumn id="9" xr3:uid="{BFB4D242-48BA-49A5-A925-0520A3002E9C}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5FED1267-AA85-4F75-AE56-3D532E45AA63}" name="Tabela1614151617181920222324" displayName="Tabela1614151617181920222324" ref="A2:I3" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A2:I3" xr:uid="{5FED1267-AA85-4F75-AE56-3D532E45AA63}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{142ECE86-1BDE-4A55-ABFD-1CD9C01C8895}" name="Field" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{A28CDF77-93AE-4A87-9312-AFA48C2BBF83}" name="Type" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{FBF5D32D-EE0A-46B2-9A73-BC3AFDF36E80}" name="Min Value" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{D95C2D47-EBEB-4053-BD4E-5954743CF346}" name="Max Value" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{CAEBD7BD-4A79-4C47-87F9-96659F522FBF}" name="Required" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{86678704-E944-460C-BCF5-DDCF2000AB1B}" name="Unique" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{62E7ABC0-26B4-412E-A861-5AF06BD113F3}" name="Primary Key" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{6488A17A-A45C-4807-9D46-207E85DF12BD}" name="Foreign Key" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{142ECE86-1BDE-4A55-ABFD-1CD9C01C8895}" name="Field" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{A28CDF77-93AE-4A87-9312-AFA48C2BBF83}" name="Type" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{FBF5D32D-EE0A-46B2-9A73-BC3AFDF36E80}" name="Min Value" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{D95C2D47-EBEB-4053-BD4E-5954743CF346}" name="Max Value" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{CAEBD7BD-4A79-4C47-87F9-96659F522FBF}" name="Required" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{86678704-E944-460C-BCF5-DDCF2000AB1B}" name="Unique" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{62E7ABC0-26B4-412E-A861-5AF06BD113F3}" name="Primary Key" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{6488A17A-A45C-4807-9D46-207E85DF12BD}" name="Foreign Key" dataDxfId="110"/>
     <tableColumn id="9" xr3:uid="{8E2BE5FC-404E-4BA3-83A0-3C6584F9BB23}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{1366A51C-6FBD-471B-9756-61962DAF9498}" name="Tabela161415161718192022232425" displayName="Tabela161415161718192022232425" ref="A2:I6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{1366A51C-6FBD-471B-9756-61962DAF9498}" name="Tabela161415161718192022232425" displayName="Tabela161415161718192022232425" ref="A2:I6" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A2:I6" xr:uid="{1366A51C-6FBD-471B-9756-61962DAF9498}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F7AA1D73-FD80-4E02-A220-1291A79C2951}" name="Field" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{E4AA3BEC-48B4-4327-9BD0-8121F4567383}" name="Type" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{E5D29EE5-42A4-42F4-8D1A-70317EE35FD9}" name="Min Value" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{38FC59A5-BBF2-4627-A314-E0142FAEB4A9}" name="Max Value" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{F61D4102-38C9-4C56-B66B-6329A5E59410}" name="Required" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{35898B5E-6658-4D17-BA19-F8989E6CE816}" name="Unique" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{DD94D091-2828-4297-8425-BE409D219292}" name="Primary Key" dataDxfId="91"/>
-    <tableColumn id="8" xr3:uid="{FFF65072-2F3F-414D-B059-A9555EFA2055}" name="Foreign Key" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{F7AA1D73-FD80-4E02-A220-1291A79C2951}" name="Field" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{E4AA3BEC-48B4-4327-9BD0-8121F4567383}" name="Type" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{E5D29EE5-42A4-42F4-8D1A-70317EE35FD9}" name="Min Value" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{38FC59A5-BBF2-4627-A314-E0142FAEB4A9}" name="Max Value" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{F61D4102-38C9-4C56-B66B-6329A5E59410}" name="Required" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{35898B5E-6658-4D17-BA19-F8989E6CE816}" name="Unique" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{DD94D091-2828-4297-8425-BE409D219292}" name="Primary Key" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{FFF65072-2F3F-414D-B059-A9555EFA2055}" name="Foreign Key" dataDxfId="100"/>
     <tableColumn id="9" xr3:uid="{5E3BA069-A1D3-4D69-B644-BD5D56F53A5E}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{3FEB252F-0BD9-4952-BDA7-848A16B6A00A}" name="Tabela16141516171819202223242526" displayName="Tabela16141516171819202223242526" ref="A2:I6" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{3FEB252F-0BD9-4952-BDA7-848A16B6A00A}" name="Tabela16141516171819202223242526" displayName="Tabela16141516171819202223242526" ref="A2:I6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A2:I6" xr:uid="{3FEB252F-0BD9-4952-BDA7-848A16B6A00A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C3E5A661-F266-4F77-8F0D-44C9693D8C84}" name="Field" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{1C714550-6E47-4E00-BEB3-EC1521347244}" name="Type" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{1B0BF91E-5A54-424E-A6BC-10E71D05C0A1}" name="Min Value" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{FABA535E-2F19-49A6-B33D-A0CC27826E5D}" name="Max Value" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{01B36880-1B0B-49F1-85F1-8D480AB6492D}" name="Required" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{A8C43E2E-8C00-40FD-91D8-DFB585B93FC2}" name="Unique" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{0072E0F5-26D6-4382-800D-81F7516D8387}" name="Primary Key" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{0C8E60A8-9915-436D-B388-40A0BAD92419}" name="Foreign Key" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{C3E5A661-F266-4F77-8F0D-44C9693D8C84}" name="Field" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{1C714550-6E47-4E00-BEB3-EC1521347244}" name="Type" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{1B0BF91E-5A54-424E-A6BC-10E71D05C0A1}" name="Min Value" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{FABA535E-2F19-49A6-B33D-A0CC27826E5D}" name="Max Value" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{01B36880-1B0B-49F1-85F1-8D480AB6492D}" name="Required" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{A8C43E2E-8C00-40FD-91D8-DFB585B93FC2}" name="Unique" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{0072E0F5-26D6-4382-800D-81F7516D8387}" name="Primary Key" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{0C8E60A8-9915-436D-B388-40A0BAD92419}" name="Foreign Key" dataDxfId="90"/>
     <tableColumn id="9" xr3:uid="{50F21BFD-9A54-4A09-88E3-16516AB1A0D0}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{4B37C28C-5FFD-4F58-AF53-A194F3F92FAD}" name="Tabela1614151617181920222324252627" displayName="Tabela1614151617181920222324252627" ref="A2:I7" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{4B37C28C-5FFD-4F58-AF53-A194F3F92FAD}" name="Tabela1614151617181920222324252627" displayName="Tabela1614151617181920222324252627" ref="A2:I7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A2:I7" xr:uid="{4B37C28C-5FFD-4F58-AF53-A194F3F92FAD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{901872BB-4217-4E7C-BA9C-C5058B659D70}" name="Field" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{FBD0496C-CBB1-47A8-B46B-EFAE8B058B57}" name="Type" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{40EA93A2-350C-411A-BC60-42B5F96AFE0F}" name="Min Value" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{24B6C103-F732-413E-A009-C66D40D97EAA}" name="Max Value" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{A751D40A-44E3-4497-9CDA-642264FBC37D}" name="Required" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{031B4D3D-F4EA-491B-BA12-09484F18DA13}" name="Unique" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{8511231C-1FEE-479C-9A3A-A2120EF5E45F}" name="Primary Key" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{E0B46C5D-EAD4-4E25-9412-2E574122EE0D}" name="Foreign Key" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{901872BB-4217-4E7C-BA9C-C5058B659D70}" name="Field" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{FBD0496C-CBB1-47A8-B46B-EFAE8B058B57}" name="Type" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{40EA93A2-350C-411A-BC60-42B5F96AFE0F}" name="Min Value" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{24B6C103-F732-413E-A009-C66D40D97EAA}" name="Max Value" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{A751D40A-44E3-4497-9CDA-642264FBC37D}" name="Required" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{031B4D3D-F4EA-491B-BA12-09484F18DA13}" name="Unique" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{8511231C-1FEE-479C-9A3A-A2120EF5E45F}" name="Primary Key" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{E0B46C5D-EAD4-4E25-9412-2E574122EE0D}" name="Foreign Key" dataDxfId="80"/>
     <tableColumn id="9" xr3:uid="{73253EE9-3D21-4CAE-B841-DA8538FDE076}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{299C4D18-5582-4918-8448-E8BD7B966D89}" name="Tabela161415161718192022232425262728" displayName="Tabela161415161718192022232425262728" ref="A2:I12" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{299C4D18-5582-4918-8448-E8BD7B966D89}" name="Tabela161415161718192022232425262728" displayName="Tabela161415161718192022232425262728" ref="A2:I12" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A2:I12" xr:uid="{299C4D18-5582-4918-8448-E8BD7B966D89}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0697591C-015B-4895-8DD0-2D17B3BDDFC2}" name="Field" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{331A450F-EE9C-4574-B02A-A2FC3BBD8368}" name="Type" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{0B85F20B-050D-4D41-A1FA-DECAEB54E23E}" name="Min Value" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{959E516D-1947-4673-901F-A50BFFA354BD}" name="Max Value" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{4D18C6A6-44F5-4A59-A73B-CC9C4BA899B9}" name="Required" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{03843C64-D375-4BC5-A091-FCB60A8FF795}" name="Unique" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{B739DC5D-79B4-4B17-9844-ACE815FE370B}" name="Primary Key" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{835D22DA-7ACD-4720-AF5D-04288E453A13}" name="Foreign Key" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{0697591C-015B-4895-8DD0-2D17B3BDDFC2}" name="Field" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{331A450F-EE9C-4574-B02A-A2FC3BBD8368}" name="Type" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{0B85F20B-050D-4D41-A1FA-DECAEB54E23E}" name="Min Value" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{959E516D-1947-4673-901F-A50BFFA354BD}" name="Max Value" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{4D18C6A6-44F5-4A59-A73B-CC9C4BA899B9}" name="Required" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{03843C64-D375-4BC5-A091-FCB60A8FF795}" name="Unique" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{B739DC5D-79B4-4B17-9844-ACE815FE370B}" name="Primary Key" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{835D22DA-7ACD-4720-AF5D-04288E453A13}" name="Foreign Key" dataDxfId="70"/>
     <tableColumn id="9" xr3:uid="{ED814550-47D2-4A5E-A6AA-E474D874A4F4}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{243FA5C8-DF7D-41EE-8371-38D77BD48AC3}" name="Tabela16141516171819202223242526272829" displayName="Tabela16141516171819202223242526272829" ref="A2:I5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{243FA5C8-DF7D-41EE-8371-38D77BD48AC3}" name="Tabela16141516171819202223242526272829" displayName="Tabela16141516171819202223242526272829" ref="A2:I5" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A2:I5" xr:uid="{243FA5C8-DF7D-41EE-8371-38D77BD48AC3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1649F721-F866-4DF9-A1E9-CD2060FD80AB}" name="Field" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{196CC5CA-7AA6-436A-8D43-F08D8EA2C445}" name="Type" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{F317B1AA-439C-4B5B-92EE-4888F8DC5AD2}" name="Min Value" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{52E15CEE-BDA8-456A-B5B4-AFB2674CBF4C}" name="Max Value" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{3B7676CB-D0AA-44EF-B5C3-6EFBA946EA13}" name="Required" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{1E2E8BF0-149D-4639-BB68-AC44387A9F07}" name="Unique" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{1286BC45-CD79-4DCF-8575-941C09303072}" name="Primary Key" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{80DEA033-2DD3-4654-9F23-F4BC87D08618}" name="Foreign Key" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{1649F721-F866-4DF9-A1E9-CD2060FD80AB}" name="Field" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{196CC5CA-7AA6-436A-8D43-F08D8EA2C445}" name="Type" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{F317B1AA-439C-4B5B-92EE-4888F8DC5AD2}" name="Min Value" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{52E15CEE-BDA8-456A-B5B4-AFB2674CBF4C}" name="Max Value" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{3B7676CB-D0AA-44EF-B5C3-6EFBA946EA13}" name="Required" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{1E2E8BF0-149D-4639-BB68-AC44387A9F07}" name="Unique" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{1286BC45-CD79-4DCF-8575-941C09303072}" name="Primary Key" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{80DEA033-2DD3-4654-9F23-F4BC87D08618}" name="Foreign Key" dataDxfId="60"/>
     <tableColumn id="9" xr3:uid="{0B07851F-ED42-4483-91C1-F23A1A12466C}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{15F0793F-4AC3-48CB-9498-1EE73E1C8A10}" name="Tabela1614151617181920222324252627282930" displayName="Tabela1614151617181920222324252627282930" ref="A2:I7" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{15F0793F-4AC3-48CB-9498-1EE73E1C8A10}" name="Tabela1614151617181920222324252627282930" displayName="Tabela1614151617181920222324252627282930" ref="A2:I7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A2:I7" xr:uid="{15F0793F-4AC3-48CB-9498-1EE73E1C8A10}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{643D055F-9AE0-4D4E-A1D7-5C704848DD78}" name="Field" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{7541835D-3522-4DE2-8185-D841EB42D016}" name="Type" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{16F68EBE-C43C-451F-A6E5-B16433CA9631}" name="Min Value" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{40DCCD7A-A282-4DE9-878A-55C5597B1AA3}" name="Max Value" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{120F7FF6-7947-43DD-A845-E80FB2406946}" name="Required" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{51DCFDEC-15CF-436E-8444-82FE532139C1}" name="Unique" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{1332E2F2-70E4-4456-9F4F-1C94D6416B7D}" name="Primary Key" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{0BFACD4B-8FFF-4635-A5E1-E0090DD57FBC}" name="Foreign Key" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{643D055F-9AE0-4D4E-A1D7-5C704848DD78}" name="Field" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{7541835D-3522-4DE2-8185-D841EB42D016}" name="Type" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{16F68EBE-C43C-451F-A6E5-B16433CA9631}" name="Min Value" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{40DCCD7A-A282-4DE9-878A-55C5597B1AA3}" name="Max Value" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{120F7FF6-7947-43DD-A845-E80FB2406946}" name="Required" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{51DCFDEC-15CF-436E-8444-82FE532139C1}" name="Unique" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{1332E2F2-70E4-4456-9F4F-1C94D6416B7D}" name="Primary Key" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{0BFACD4B-8FFF-4635-A5E1-E0090DD57FBC}" name="Foreign Key" dataDxfId="50"/>
     <tableColumn id="9" xr3:uid="{88DBAE4D-4E23-4871-88B7-7A2E01D3A183}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{6F1528BE-EC7F-4FB5-8046-BE3A8A01E4A3}" name="Tabela161415161718192022232425262728293031" displayName="Tabela161415161718192022232425262728293031" ref="A2:I3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{6F1528BE-EC7F-4FB5-8046-BE3A8A01E4A3}" name="Tabela161415161718192022232425262728293031" displayName="Tabela161415161718192022232425262728293031" ref="A2:I3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A2:I3" xr:uid="{6F1528BE-EC7F-4FB5-8046-BE3A8A01E4A3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{51ED7482-4B6F-4346-9BF6-C0E1A57A5926}" name="Field" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{BF00580F-29AB-4FEB-8CAA-49CE34D70C8E}" name="Type" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{82748612-5E57-4088-B901-766DE1F80372}" name="Min Value" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E901E047-2F29-45FF-8DF1-487BCE317F88}" name="Max Value" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{27CF437E-FAB2-41D4-B55E-1F18343774F4}" name="Required" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{7BCD1327-CBFE-4F53-9CD0-E4BA9B68E792}" name="Unique" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{FAA2C1F8-732C-4730-948C-886F2B4E41AB}" name="Primary Key" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{165A1A22-8AA7-478D-A738-6E08BAFA01A3}" name="Foreign Key" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{51ED7482-4B6F-4346-9BF6-C0E1A57A5926}" name="Field" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{BF00580F-29AB-4FEB-8CAA-49CE34D70C8E}" name="Type" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{82748612-5E57-4088-B901-766DE1F80372}" name="Min Value" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{E901E047-2F29-45FF-8DF1-487BCE317F88}" name="Max Value" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{27CF437E-FAB2-41D4-B55E-1F18343774F4}" name="Required" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{7BCD1327-CBFE-4F53-9CD0-E4BA9B68E792}" name="Unique" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{FAA2C1F8-732C-4730-948C-886F2B4E41AB}" name="Primary Key" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{165A1A22-8AA7-478D-A738-6E08BAFA01A3}" name="Foreign Key" dataDxfId="40"/>
     <tableColumn id="9" xr3:uid="{2DFED524-8B24-4358-B54F-F47C2EBAF881}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{5339462C-8C0B-4279-8EA4-46EB669CAE4E}" name="Tabela16141516171819202223242526272829303132" displayName="Tabela16141516171819202223242526272829303132" ref="A2:I8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{5339462C-8C0B-4279-8EA4-46EB669CAE4E}" name="Tabela16141516171819202223242526272829303132" displayName="Tabela16141516171819202223242526272829303132" ref="A2:I8" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A2:I8" xr:uid="{5339462C-8C0B-4279-8EA4-46EB669CAE4E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D90BEAFA-242F-46E4-8492-46FBF863BE10}" name="Field" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{970384B7-B681-4976-B8D8-206137982C09}" name="Type" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{1003AAED-3F92-4436-90A8-349B653CE14B}" name="Min Value" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C1871D86-364B-4BB0-9255-31EE51D09B69}" name="Max Value" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{85094D2B-E9EF-4CCC-B83D-23FD6B66B894}" name="Required" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{01710DB5-C249-4A8E-9DA3-4BFF9F06909B}" name="Unique" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{C94422DA-D51D-483F-A261-7F1B4287A9DC}" name="Primary Key" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{64AEF9A0-29C1-415A-AB96-37208E8C6BE7}" name="Foreign Key" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D90BEAFA-242F-46E4-8492-46FBF863BE10}" name="Field" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{970384B7-B681-4976-B8D8-206137982C09}" name="Type" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{1003AAED-3F92-4436-90A8-349B653CE14B}" name="Min Value" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{C1871D86-364B-4BB0-9255-31EE51D09B69}" name="Max Value" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{85094D2B-E9EF-4CCC-B83D-23FD6B66B894}" name="Required" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{01710DB5-C249-4A8E-9DA3-4BFF9F06909B}" name="Unique" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{C94422DA-D51D-483F-A261-7F1B4287A9DC}" name="Primary Key" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{64AEF9A0-29C1-415A-AB96-37208E8C6BE7}" name="Foreign Key" dataDxfId="30"/>
     <tableColumn id="9" xr3:uid="{D5130271-7AB1-460E-A5F1-EF79FA7FDFA4}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{FFDA53AC-4698-4B8E-A388-19F56B332243}" name="Tabela1614151617181920222324252627282930313233" displayName="Tabela1614151617181920222324252627282930313233" ref="A2:I5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A2:I5" xr:uid="{FFDA53AC-4698-4B8E-A388-19F56B332243}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8232B0A3-73F2-4473-92FA-E3C27173B3DA}" name="Field" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A142B767-02AD-4B73-A5C7-C395851B1D0E}" name="Type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{A7089E95-9145-48A3-9E07-3AF9BCC031A0}" name="Min Value" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{909DB943-53E0-4909-9B23-AA72704E7D22}" name="Max Value" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{62502C80-504E-4B0E-9920-056ADEABAEA9}" name="Required" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{B1194EA2-D333-45A7-861E-255AF16007A8}" name="Unique" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C4A91A08-CA29-4ABA-B2F6-1E060912EACC}" name="Primary Key" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{14C7110B-417B-492B-B84E-09395944C5AD}" name="Foreign Key" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{75A5711F-5D49-4C5D-86EE-169034E0C138}" name="Comments"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8D19407-C413-47E6-91F2-CF730DD0FF82}" name="Tabela135" displayName="Tabela135" ref="A2:I9" totalsRowShown="0" headerRowDxfId="279" dataDxfId="278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8D19407-C413-47E6-91F2-CF730DD0FF82}" name="Tabela135" displayName="Tabela135" ref="A2:I9" totalsRowShown="0" headerRowDxfId="289" dataDxfId="288">
   <autoFilter ref="A2:I9" xr:uid="{E8D19407-C413-47E6-91F2-CF730DD0FF82}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A1996C6B-3C12-4A87-82DA-894C0D2E801B}" name="Field" dataDxfId="277"/>
-    <tableColumn id="2" xr3:uid="{692DA894-1ADE-44B8-9925-11272B6332CD}" name="Type" dataDxfId="276"/>
-    <tableColumn id="3" xr3:uid="{0357D4D6-14E3-4A97-AE7B-00C3DB07B793}" name="Min Value" dataDxfId="275"/>
-    <tableColumn id="4" xr3:uid="{2A922AD9-A713-4AE3-A5CB-4EBEB5582C18}" name="Max Value" dataDxfId="274"/>
-    <tableColumn id="5" xr3:uid="{4B8E5C02-8D2B-47B5-90AF-AAB2E3B0B1F4}" name="Required" dataDxfId="273"/>
-    <tableColumn id="6" xr3:uid="{5B163FCE-A36F-4164-BA20-8D4812B34000}" name="Unique" dataDxfId="272"/>
-    <tableColumn id="7" xr3:uid="{901E8C42-C59C-47C1-A766-6B52D8895ED8}" name="Primary Key" dataDxfId="271"/>
-    <tableColumn id="8" xr3:uid="{AE2D789A-FF78-4D98-9C51-99FDB46F1A20}" name="Foreign Key" dataDxfId="270"/>
+    <tableColumn id="1" xr3:uid="{A1996C6B-3C12-4A87-82DA-894C0D2E801B}" name="Field" dataDxfId="287"/>
+    <tableColumn id="2" xr3:uid="{692DA894-1ADE-44B8-9925-11272B6332CD}" name="Type" dataDxfId="286"/>
+    <tableColumn id="3" xr3:uid="{0357D4D6-14E3-4A97-AE7B-00C3DB07B793}" name="Min Value" dataDxfId="285"/>
+    <tableColumn id="4" xr3:uid="{2A922AD9-A713-4AE3-A5CB-4EBEB5582C18}" name="Max Value" dataDxfId="284"/>
+    <tableColumn id="5" xr3:uid="{4B8E5C02-8D2B-47B5-90AF-AAB2E3B0B1F4}" name="Required" dataDxfId="283"/>
+    <tableColumn id="6" xr3:uid="{5B163FCE-A36F-4164-BA20-8D4812B34000}" name="Unique" dataDxfId="282"/>
+    <tableColumn id="7" xr3:uid="{901E8C42-C59C-47C1-A766-6B52D8895ED8}" name="Primary Key" dataDxfId="281"/>
+    <tableColumn id="8" xr3:uid="{AE2D789A-FF78-4D98-9C51-99FDB46F1A20}" name="Foreign Key" dataDxfId="280"/>
     <tableColumn id="9" xr3:uid="{6F33B1F9-586B-4E6F-B9DF-8FD662DEE934}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2680,17 +2749,35 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{CE1BE5C8-E0A2-407F-8D85-1C79148ACB92}" name="Tabela161415161718192022232425262728293031323334" displayName="Tabela161415161718192022232425262728293031323334" ref="A2:I3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{FFDA53AC-4698-4B8E-A388-19F56B332243}" name="Tabela1614151617181920222324252627282930313233" displayName="Tabela1614151617181920222324252627282930313233" ref="A2:I5" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A2:I5" xr:uid="{FFDA53AC-4698-4B8E-A388-19F56B332243}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8232B0A3-73F2-4473-92FA-E3C27173B3DA}" name="Field" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{A142B767-02AD-4B73-A5C7-C395851B1D0E}" name="Type" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A7089E95-9145-48A3-9E07-3AF9BCC031A0}" name="Min Value" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{909DB943-53E0-4909-9B23-AA72704E7D22}" name="Max Value" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{62502C80-504E-4B0E-9920-056ADEABAEA9}" name="Required" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{B1194EA2-D333-45A7-861E-255AF16007A8}" name="Unique" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{C4A91A08-CA29-4ABA-B2F6-1E060912EACC}" name="Primary Key" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{14C7110B-417B-492B-B84E-09395944C5AD}" name="Foreign Key" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{75A5711F-5D49-4C5D-86EE-169034E0C138}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{CE1BE5C8-E0A2-407F-8D85-1C79148ACB92}" name="Tabela161415161718192022232425262728293031323334" displayName="Tabela161415161718192022232425262728293031323334" ref="A2:I3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A2:I3" xr:uid="{CE1BE5C8-E0A2-407F-8D85-1C79148ACB92}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1148E95E-85C8-4B16-AF96-52FB2D179861}" name="Field" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{100C28F4-8BE2-4DB2-AF2E-535F90C3F613}" name="Type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{9A9AD4B8-2579-4D61-A983-3E3F141BAD26}" name="Min Value" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E9216819-8314-45F3-9621-E8ACA17AB9F5}" name="Max Value" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6DB5386C-3409-4450-9F34-1C7884F294F6}" name="Required" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EA51EC43-731B-4DB1-8BF4-AB941AF5BC5A}" name="Unique" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0D9D0AC5-F5D0-4CBA-9904-1E79763AADE1}" name="Primary Key" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{93AA3F7C-BE55-47D9-9108-D65620729C3F}" name="Foreign Key" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1148E95E-85C8-4B16-AF96-52FB2D179861}" name="Field" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{100C28F4-8BE2-4DB2-AF2E-535F90C3F613}" name="Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9A9AD4B8-2579-4D61-A983-3E3F141BAD26}" name="Min Value" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E9216819-8314-45F3-9621-E8ACA17AB9F5}" name="Max Value" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6DB5386C-3409-4450-9F34-1C7884F294F6}" name="Required" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{EA51EC43-731B-4DB1-8BF4-AB941AF5BC5A}" name="Unique" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{0D9D0AC5-F5D0-4CBA-9904-1E79763AADE1}" name="Primary Key" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{93AA3F7C-BE55-47D9-9108-D65620729C3F}" name="Foreign Key" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{BFFFD4D6-E90C-451B-AFE5-26DFD8DA7BCF}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2698,17 +2785,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3A1FEB11-FDB2-4455-ACF7-F5967395F746}" name="Tabela167" displayName="Tabela167" ref="A2:I5" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3A1FEB11-FDB2-4455-ACF7-F5967395F746}" name="Tabela167" displayName="Tabela167" ref="A2:I5" totalsRowShown="0" headerRowDxfId="279" dataDxfId="278">
   <autoFilter ref="A2:I5" xr:uid="{3A1FEB11-FDB2-4455-ACF7-F5967395F746}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2895BD39-7728-41BF-8132-15922FCCDF3A}" name="Field" dataDxfId="267"/>
-    <tableColumn id="2" xr3:uid="{46CA65CD-EF22-4754-BC6D-3879362871D9}" name="Type" dataDxfId="266"/>
-    <tableColumn id="3" xr3:uid="{7D685115-4817-49D7-B2CE-2815E1BFCE25}" name="Min Value" dataDxfId="265"/>
-    <tableColumn id="4" xr3:uid="{D3AE2AEC-8491-4586-9E7E-37F0D56E3B97}" name="Max Value" dataDxfId="264"/>
-    <tableColumn id="5" xr3:uid="{4177ACE0-808D-4D49-BAEE-AD301DAF60CD}" name="Required" dataDxfId="263"/>
-    <tableColumn id="6" xr3:uid="{C2704C49-352D-489B-AB89-56CEA803EBE5}" name="Unique" dataDxfId="262"/>
-    <tableColumn id="7" xr3:uid="{B73AC7B8-0FF8-4E3D-A865-5B15FE261E18}" name="Primary Key" dataDxfId="261"/>
-    <tableColumn id="8" xr3:uid="{853A8464-1829-489A-BA85-736FBCEA5B50}" name="Foreign Key" dataDxfId="260"/>
+    <tableColumn id="1" xr3:uid="{2895BD39-7728-41BF-8132-15922FCCDF3A}" name="Field" dataDxfId="277"/>
+    <tableColumn id="2" xr3:uid="{46CA65CD-EF22-4754-BC6D-3879362871D9}" name="Type" dataDxfId="276"/>
+    <tableColumn id="3" xr3:uid="{7D685115-4817-49D7-B2CE-2815E1BFCE25}" name="Min Value" dataDxfId="275"/>
+    <tableColumn id="4" xr3:uid="{D3AE2AEC-8491-4586-9E7E-37F0D56E3B97}" name="Max Value" dataDxfId="274"/>
+    <tableColumn id="5" xr3:uid="{4177ACE0-808D-4D49-BAEE-AD301DAF60CD}" name="Required" dataDxfId="273"/>
+    <tableColumn id="6" xr3:uid="{C2704C49-352D-489B-AB89-56CEA803EBE5}" name="Unique" dataDxfId="272"/>
+    <tableColumn id="7" xr3:uid="{B73AC7B8-0FF8-4E3D-A865-5B15FE261E18}" name="Primary Key" dataDxfId="271"/>
+    <tableColumn id="8" xr3:uid="{853A8464-1829-489A-BA85-736FBCEA5B50}" name="Foreign Key" dataDxfId="270"/>
     <tableColumn id="9" xr3:uid="{F5B4690D-8668-4E61-9EFE-3C268E2764F0}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2716,17 +2803,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6D4EBE69-3806-4B87-A724-889A67D2B4D4}" name="Tabela168" displayName="Tabela168" ref="A2:I8" totalsRowShown="0" headerRowDxfId="259" dataDxfId="258">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6D4EBE69-3806-4B87-A724-889A67D2B4D4}" name="Tabela168" displayName="Tabela168" ref="A2:I8" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268">
   <autoFilter ref="A2:I8" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B4D5969B-21B1-489A-A52F-22224AF05518}" name="Field" dataDxfId="257"/>
-    <tableColumn id="2" xr3:uid="{A670B613-6F22-4254-A6DD-4BB36A3EA924}" name="Type" dataDxfId="256"/>
-    <tableColumn id="3" xr3:uid="{22CECB1C-0EBF-446A-9301-3AFEF8F73950}" name="Min Value" dataDxfId="255"/>
-    <tableColumn id="4" xr3:uid="{CC1107D6-6D2A-4416-8709-41B072DE9467}" name="Max Value" dataDxfId="254"/>
-    <tableColumn id="5" xr3:uid="{C36C135C-A8EA-45DD-B8E3-9E5148C2F316}" name="Required" dataDxfId="253"/>
-    <tableColumn id="6" xr3:uid="{92413580-A4E0-447D-8973-AFF50451C0BA}" name="Unique" dataDxfId="252"/>
-    <tableColumn id="7" xr3:uid="{D83FDD3F-A566-42A1-8669-4E775C50982F}" name="Primary Key" dataDxfId="251"/>
-    <tableColumn id="8" xr3:uid="{7B3715A9-EABF-43CD-8BB7-D6C5A8B5E1AA}" name="Foreign Key" dataDxfId="250"/>
+    <tableColumn id="1" xr3:uid="{B4D5969B-21B1-489A-A52F-22224AF05518}" name="Field" dataDxfId="267"/>
+    <tableColumn id="2" xr3:uid="{A670B613-6F22-4254-A6DD-4BB36A3EA924}" name="Type" dataDxfId="266"/>
+    <tableColumn id="3" xr3:uid="{22CECB1C-0EBF-446A-9301-3AFEF8F73950}" name="Min Value" dataDxfId="265"/>
+    <tableColumn id="4" xr3:uid="{CC1107D6-6D2A-4416-8709-41B072DE9467}" name="Max Value" dataDxfId="264"/>
+    <tableColumn id="5" xr3:uid="{C36C135C-A8EA-45DD-B8E3-9E5148C2F316}" name="Required" dataDxfId="263"/>
+    <tableColumn id="6" xr3:uid="{92413580-A4E0-447D-8973-AFF50451C0BA}" name="Unique" dataDxfId="262"/>
+    <tableColumn id="7" xr3:uid="{D83FDD3F-A566-42A1-8669-4E775C50982F}" name="Primary Key" dataDxfId="261"/>
+    <tableColumn id="8" xr3:uid="{7B3715A9-EABF-43CD-8BB7-D6C5A8B5E1AA}" name="Foreign Key" dataDxfId="260"/>
     <tableColumn id="9" xr3:uid="{A4862AF3-B5BB-48A5-B130-566E6327DAE4}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2734,17 +2821,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DE3B34C-BEC8-41AD-A1B8-3CAFE666982F}" name="Tabela169" displayName="Tabela169" ref="A2:I11" totalsRowShown="0" headerRowDxfId="249" dataDxfId="248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DE3B34C-BEC8-41AD-A1B8-3CAFE666982F}" name="Tabela169" displayName="Tabela169" ref="A2:I11" totalsRowShown="0" headerRowDxfId="259" dataDxfId="258">
   <autoFilter ref="A2:I11" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BE1F2404-C1A2-4036-BE03-85BE0B543DC4}" name="Field" dataDxfId="247"/>
-    <tableColumn id="2" xr3:uid="{A84F0B6E-CA56-407B-92BB-E50AC0F10215}" name="Type" dataDxfId="246"/>
-    <tableColumn id="3" xr3:uid="{6A3B99FC-EBBC-4216-A289-9B20F91A4D6A}" name="Min Value" dataDxfId="245"/>
-    <tableColumn id="4" xr3:uid="{C61E81D5-C628-4C5F-BA71-1CCCCA72EE53}" name="Max Value" dataDxfId="244"/>
-    <tableColumn id="5" xr3:uid="{9BB5A6E7-F07A-4325-981A-42041E34F498}" name="Required" dataDxfId="243"/>
-    <tableColumn id="6" xr3:uid="{7528F9FE-C469-45C3-8FAE-3773F296CF0E}" name="Unique" dataDxfId="242"/>
-    <tableColumn id="7" xr3:uid="{5217015E-D866-401C-83AE-E68A25DBA2A9}" name="Primary Key" dataDxfId="241"/>
-    <tableColumn id="8" xr3:uid="{145159B3-DA38-41D0-8E14-D73AADC13212}" name="Foreign Key" dataDxfId="240"/>
+    <tableColumn id="1" xr3:uid="{BE1F2404-C1A2-4036-BE03-85BE0B543DC4}" name="Field" dataDxfId="257"/>
+    <tableColumn id="2" xr3:uid="{A84F0B6E-CA56-407B-92BB-E50AC0F10215}" name="Type" dataDxfId="256"/>
+    <tableColumn id="3" xr3:uid="{6A3B99FC-EBBC-4216-A289-9B20F91A4D6A}" name="Min Value" dataDxfId="255"/>
+    <tableColumn id="4" xr3:uid="{C61E81D5-C628-4C5F-BA71-1CCCCA72EE53}" name="Max Value" dataDxfId="254"/>
+    <tableColumn id="5" xr3:uid="{9BB5A6E7-F07A-4325-981A-42041E34F498}" name="Required" dataDxfId="253"/>
+    <tableColumn id="6" xr3:uid="{7528F9FE-C469-45C3-8FAE-3773F296CF0E}" name="Unique" dataDxfId="252"/>
+    <tableColumn id="7" xr3:uid="{5217015E-D866-401C-83AE-E68A25DBA2A9}" name="Primary Key" dataDxfId="251"/>
+    <tableColumn id="8" xr3:uid="{145159B3-DA38-41D0-8E14-D73AADC13212}" name="Foreign Key" dataDxfId="250"/>
     <tableColumn id="9" xr3:uid="{EA29B3C5-88C2-4DE6-9525-F7652AFAA312}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2752,54 +2839,54 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08CFEFCE-91CE-45A8-B038-1E8E86FF288D}" name="Tabela1610" displayName="Tabela1610" ref="A2:I9" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{59388DB2-100E-4DBF-B1CE-7848F56E02E8}" name="Tabela1694" displayName="Tabela1694" ref="A2:I8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:I8" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9F11ECA5-DAC1-4CD0-AF94-6217A08ABEEB}" name="Field" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C9D77ABA-B70F-40EC-BE46-AE8A67285FE3}" name="Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{02F7B11C-5768-4DDE-A8FE-06EC7BFE12E7}" name="Min Value" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{388C0910-5FB0-41D5-988D-F97716C8EA82}" name="Max Value" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6EDBA112-B2AE-4320-AF16-F1C60867E167}" name="Required" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C833F897-B002-48D4-8588-63E848E43D47}" name="Unique" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CDA204D3-67BA-4F72-A5B9-E32A980EE393}" name="Primary Key" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E3217ED1-978E-459A-A1D7-A4FCD6459785}" name="Foreign Key" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{7B260BB6-7614-43DF-B759-D1F84F9F2487}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08CFEFCE-91CE-45A8-B038-1E8E86FF288D}" name="Tabela1610" displayName="Tabela1610" ref="A2:I9" totalsRowShown="0" headerRowDxfId="249" dataDxfId="248">
   <autoFilter ref="A2:I9" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E7B80894-759C-4258-A66B-44D0DA50142D}" name="Field" dataDxfId="237"/>
-    <tableColumn id="2" xr3:uid="{955A2A52-431E-424E-ADBD-379F94628FAD}" name="Type" dataDxfId="236"/>
-    <tableColumn id="3" xr3:uid="{5B8F7967-1F90-466D-83B8-5ED5BF9D37B2}" name="Min Value" dataDxfId="235"/>
-    <tableColumn id="4" xr3:uid="{317AF3DA-DED3-406E-97C0-A932CDF134E4}" name="Max Value" dataDxfId="234"/>
-    <tableColumn id="5" xr3:uid="{0096168F-84BE-4D42-AF8B-A36AB5CC7EA5}" name="Required" dataDxfId="233"/>
-    <tableColumn id="6" xr3:uid="{BD7E1B8D-F55D-47AF-9537-7768FA16C9C2}" name="Unique" dataDxfId="232"/>
-    <tableColumn id="7" xr3:uid="{21B876BD-2DC2-4437-9242-FE560D422A07}" name="Primary Key" dataDxfId="231"/>
-    <tableColumn id="8" xr3:uid="{679C5BDF-55B9-45A8-9FBA-82A3B7FA52CF}" name="Foreign Key" dataDxfId="230"/>
+    <tableColumn id="1" xr3:uid="{E7B80894-759C-4258-A66B-44D0DA50142D}" name="Field" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{955A2A52-431E-424E-ADBD-379F94628FAD}" name="Type" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{5B8F7967-1F90-466D-83B8-5ED5BF9D37B2}" name="Min Value" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{317AF3DA-DED3-406E-97C0-A932CDF134E4}" name="Max Value" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{0096168F-84BE-4D42-AF8B-A36AB5CC7EA5}" name="Required" dataDxfId="243"/>
+    <tableColumn id="6" xr3:uid="{BD7E1B8D-F55D-47AF-9537-7768FA16C9C2}" name="Unique" dataDxfId="242"/>
+    <tableColumn id="7" xr3:uid="{21B876BD-2DC2-4437-9242-FE560D422A07}" name="Primary Key" dataDxfId="241"/>
+    <tableColumn id="8" xr3:uid="{679C5BDF-55B9-45A8-9FBA-82A3B7FA52CF}" name="Foreign Key" dataDxfId="240"/>
     <tableColumn id="9" xr3:uid="{56EBD671-0DDE-46BF-826F-93B2EDDA0093}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{674B4D59-BAFC-41E9-83C4-63FBD34D12A0}" name="Tabela161011" displayName="Tabela161011" ref="A2:I4" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{674B4D59-BAFC-41E9-83C4-63FBD34D12A0}" name="Tabela161011" displayName="Tabela161011" ref="A2:I4" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
   <autoFilter ref="A2:I4" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FA2F6505-AEFF-4990-8C6F-93ABDCAB00F0}" name="Field" dataDxfId="227"/>
-    <tableColumn id="2" xr3:uid="{F1992DBE-84C9-4099-A404-5C406FEB646B}" name="Type" dataDxfId="226"/>
-    <tableColumn id="3" xr3:uid="{B09CBFA2-405D-4AF1-B695-A1264AA5E716}" name="Min Value" dataDxfId="225"/>
-    <tableColumn id="4" xr3:uid="{2E57A9CF-3133-46AD-8740-55F0BFF72C00}" name="Max Value" dataDxfId="224"/>
-    <tableColumn id="5" xr3:uid="{BD53C313-030D-4E57-A265-8C5C36F55690}" name="Required" dataDxfId="223"/>
-    <tableColumn id="6" xr3:uid="{21094A88-0C46-4775-B857-9814536749C5}" name="Unique" dataDxfId="222"/>
-    <tableColumn id="7" xr3:uid="{416E1144-B9C9-4935-B627-F06CF4A974CE}" name="Primary Key" dataDxfId="221"/>
-    <tableColumn id="8" xr3:uid="{6A08A74B-195F-4BD0-9E0A-149CF5017EB0}" name="Foreign Key" dataDxfId="220"/>
+    <tableColumn id="1" xr3:uid="{FA2F6505-AEFF-4990-8C6F-93ABDCAB00F0}" name="Field" dataDxfId="237"/>
+    <tableColumn id="2" xr3:uid="{F1992DBE-84C9-4099-A404-5C406FEB646B}" name="Type" dataDxfId="236"/>
+    <tableColumn id="3" xr3:uid="{B09CBFA2-405D-4AF1-B695-A1264AA5E716}" name="Min Value" dataDxfId="235"/>
+    <tableColumn id="4" xr3:uid="{2E57A9CF-3133-46AD-8740-55F0BFF72C00}" name="Max Value" dataDxfId="234"/>
+    <tableColumn id="5" xr3:uid="{BD53C313-030D-4E57-A265-8C5C36F55690}" name="Required" dataDxfId="233"/>
+    <tableColumn id="6" xr3:uid="{21094A88-0C46-4775-B857-9814536749C5}" name="Unique" dataDxfId="232"/>
+    <tableColumn id="7" xr3:uid="{416E1144-B9C9-4935-B627-F06CF4A974CE}" name="Primary Key" dataDxfId="231"/>
+    <tableColumn id="8" xr3:uid="{6A08A74B-195F-4BD0-9E0A-149CF5017EB0}" name="Foreign Key" dataDxfId="230"/>
     <tableColumn id="9" xr3:uid="{37CB1CAD-6EC3-484D-ADE2-84A19EA59E9C}" name="Comments"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FA33D8E3-F06A-48F0-BF73-503FE072A1A3}" name="Tabela1612" displayName="Tabela1612" ref="A2:I7" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
-  <autoFilter ref="A2:I7" xr:uid="{1687C86F-431A-4D7C-B6AB-C42452DC4EB7}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D5BA9240-3B08-43AC-8861-7EB6716C9058}" name="Field" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{C0CAA18D-BD86-43C1-B0C7-44B35940549E}" name="Type" dataDxfId="216"/>
-    <tableColumn id="3" xr3:uid="{BC23099E-60B8-46A3-92BE-675190366721}" name="Min Value" dataDxfId="215"/>
-    <tableColumn id="4" xr3:uid="{CF5ADA55-2C92-4516-8E57-B502FE55CEF3}" name="Max Value" dataDxfId="214"/>
-    <tableColumn id="5" xr3:uid="{F2D377AA-EC81-4933-A291-92F20DC95BF8}" name="Required" dataDxfId="213"/>
-    <tableColumn id="6" xr3:uid="{7F471EAF-8F98-47B8-844C-DFD9E128CE9E}" name="Unique" dataDxfId="212"/>
-    <tableColumn id="7" xr3:uid="{EEB040FA-7014-453F-913F-85F2FC3793EE}" name="Primary Key" dataDxfId="211"/>
-    <tableColumn id="8" xr3:uid="{0AA900A8-692D-42EB-A5EA-1FAFD0D877B9}" name="Foreign Key" dataDxfId="210"/>
-    <tableColumn id="9" xr3:uid="{9412B86B-5593-4E73-9C42-579CF677995A}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3052,7 +3139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D64F4C7-B4C2-44A5-9769-B07F1FB738D3}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -3070,17 +3157,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3656,6 +3743,214 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAFCD8E-6E1D-49DB-AE82-24315E3CD6D9}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>128</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417A6C70-F369-4F04-8058-E6C12EB57753}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3677,17 +3972,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3842,7 +4137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492BEEB-6A6D-4747-80F8-9D3619824BE8}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -3864,17 +4159,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4078,7 +4373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB36995-C78A-4142-BDFF-7FA9D4FE8043}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -4100,17 +4395,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4262,7 +4557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0AA54-5B44-4921-A612-459D4E8294FA}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -4284,17 +4579,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4657,7 +4952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49D6C7D-0B2A-42BA-A8B2-26B51C8AB265}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4679,17 +4974,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4783,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA5952-6B50-431F-96B0-EAD56197117D}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4805,17 +5100,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4915,7 +5210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983BEBD-9EE0-4875-90D7-E1061D3BEC3C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -4937,17 +5232,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5151,7 +5446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240229A5-78D2-4134-8C35-D5C2CFE0C548}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5173,17 +5468,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5277,7 +5572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567C06DE-1D63-4215-9AB7-E53D1FBDFF76}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -5299,17 +5594,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5500,106 +5795,6 @@
       </c>
       <c r="I8" t="s">
         <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF88A17-3F53-4737-808A-6B7F660E1469}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5635,17 +5830,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5919,6 +6114,106 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF88A17-3F53-4737-808A-6B7F660E1469}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E8C02-EB80-4495-A2B5-67C50C2AB38A}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -5940,17 +6235,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6021,7 +6316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2159B23E-F85C-4335-8496-0D2DD8EDB636}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6043,17 +6338,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6205,7 +6500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3CEC88-0424-4D32-94C9-DAA71511F7A9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6227,17 +6522,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6383,7 +6678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359DE53-6F06-4BF9-827E-7C0E5F8FBB4D}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -6405,17 +6700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6593,7 +6888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896BAB95-9F44-4E1F-82F5-5276F3F708A1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -6615,17 +6910,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6933,7 +7228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4337C152-7C96-4732-B11B-6F762E2829C4}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6955,17 +7250,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7088,7 +7383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0616BD-B82B-45E8-B5D7-C8982AA74A65}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -7110,17 +7405,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7301,7 +7596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2981F4-15F3-41A4-ADE4-1CBB57E3098D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7323,17 +7618,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7401,7 +7696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E196E606-34BF-457A-A387-9DDAC7FB56A2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -7423,17 +7718,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7623,158 +7918,6 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C55F5A-BCAA-4F17-AF07-A4AAE7025BE2}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>128</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7811,17 +7954,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8058,6 +8201,158 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C55F5A-BCAA-4F17-AF07-A4AAE7025BE2}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>128</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DDA728-0631-402D-BC14-39EF5243A004}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -8079,17 +8374,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8182,17 +8477,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8337,17 +8632,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8553,8 +8848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111A51C3-7433-4078-8EA1-EE94CC9AD9DB}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8571,17 +8866,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8831,11 +9126,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -8854,7 +9149,7 @@
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8869,6 +9164,240 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD927C43-DFFA-4EF2-9103-E4310C9E4609}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89751A90-4D79-4DAD-A80D-A355FD24D8E8}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -8890,17 +9419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9134,7 +9663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55CEB5-8610-49AE-A142-DA70B4627DD5}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -9156,17 +9685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9246,214 +9775,6 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAFCD8E-6E1D-49DB-AE82-24315E3CD6D9}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>128</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
         <v>0</v>
       </c>
     </row>
